--- a/socialstyrelsen/statistik-covid19-avlidna_2021-10-04.xlsx
+++ b/socialstyrelsen/statistik-covid19-avlidna_2021-10-04.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\S\Delad\021-Statistik Covid\Excelfiler\Under bearbetning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Delad\510-Statistik covid19\2. Avlidna i covid-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2578" uniqueCount="1235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2580" uniqueCount="1235">
   <si>
     <t>Diabetes</t>
   </si>
@@ -6032,42 +6032,6 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -6086,6 +6050,12 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6094,6 +6064,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6771,7 +6771,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7068,7 +7067,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7562,7 +7560,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7858,7 +7855,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -23144,7 +23140,9 @@
   </sheetPr>
   <dimension ref="B1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -39945,9 +39943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M84" sqref="M84"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -42656,16 +42652,16 @@
       <c r="F34" s="90"/>
     </row>
     <row r="35" spans="2:6" ht="27.75" thickTop="1">
-      <c r="B35" s="300" t="s">
+      <c r="B35" s="319" t="s">
         <v>55</v>
       </c>
       <c r="C35" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="302" t="s">
+      <c r="D35" s="320" t="s">
         <v>57</v>
       </c>
-      <c r="E35" s="302" t="s">
+      <c r="E35" s="320" t="s">
         <v>58</v>
       </c>
       <c r="F35" s="11" t="s">
@@ -42673,45 +42669,45 @@
       </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="301"/>
+      <c r="B36" s="314"/>
       <c r="C36" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="303"/>
-      <c r="E36" s="303"/>
+      <c r="D36" s="311"/>
+      <c r="E36" s="311"/>
       <c r="F36" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="301"/>
+      <c r="B37" s="314"/>
       <c r="C37" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="303"/>
-      <c r="E37" s="303"/>
+      <c r="D37" s="311"/>
+      <c r="E37" s="311"/>
       <c r="F37" s="12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="301"/>
+      <c r="B38" s="314"/>
       <c r="C38" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="D38" s="303"/>
-      <c r="E38" s="303"/>
+      <c r="D38" s="311"/>
+      <c r="E38" s="311"/>
       <c r="F38" s="12" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="27">
-      <c r="B39" s="301"/>
+      <c r="B39" s="314"/>
       <c r="C39" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="D39" s="303"/>
-      <c r="E39" s="303"/>
+      <c r="D39" s="311"/>
+      <c r="E39" s="311"/>
       <c r="F39" s="12" t="s">
         <v>64</v>
       </c>
@@ -42741,22 +42737,22 @@
       <c r="F41" s="69"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="304"/>
-      <c r="C42" s="304"/>
-      <c r="D42" s="303" t="s">
+      <c r="B42" s="307"/>
+      <c r="C42" s="307"/>
+      <c r="D42" s="311" t="s">
         <v>69</v>
       </c>
-      <c r="E42" s="303" t="s">
+      <c r="E42" s="311" t="s">
         <v>70</v>
       </c>
-      <c r="F42" s="303"/>
+      <c r="F42" s="311"/>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="304"/>
-      <c r="C43" s="304"/>
-      <c r="D43" s="303"/>
-      <c r="E43" s="303"/>
-      <c r="F43" s="303"/>
+      <c r="B43" s="307"/>
+      <c r="C43" s="307"/>
+      <c r="D43" s="311"/>
+      <c r="E43" s="311"/>
+      <c r="F43" s="311"/>
     </row>
     <row r="44" spans="2:6" ht="14.25" thickBot="1">
       <c r="B44" s="90"/>
@@ -42770,16 +42766,16 @@
       <c r="F44" s="91"/>
     </row>
     <row r="45" spans="2:6" ht="14.25" thickTop="1">
-      <c r="B45" s="306" t="s">
+      <c r="B45" s="313" t="s">
         <v>0</v>
       </c>
       <c r="C45" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="D45" s="307" t="s">
+      <c r="D45" s="315" t="s">
         <v>74</v>
       </c>
-      <c r="E45" s="307" t="s">
+      <c r="E45" s="315" t="s">
         <v>75</v>
       </c>
       <c r="F45" s="68" t="s">
@@ -42787,30 +42783,30 @@
       </c>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="301"/>
+      <c r="B46" s="314"/>
       <c r="C46" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="304"/>
-      <c r="E46" s="304"/>
+      <c r="D46" s="307"/>
+      <c r="E46" s="307"/>
       <c r="F46" s="68"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="301"/>
+      <c r="B47" s="314"/>
       <c r="C47" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D47" s="304"/>
-      <c r="E47" s="304"/>
+      <c r="D47" s="307"/>
+      <c r="E47" s="307"/>
       <c r="F47" s="68"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="301"/>
+      <c r="B48" s="314"/>
       <c r="C48" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="D48" s="304"/>
-      <c r="E48" s="304"/>
+      <c r="D48" s="307"/>
+      <c r="E48" s="307"/>
       <c r="F48" s="68"/>
     </row>
     <row r="49" spans="2:6" ht="27">
@@ -42862,46 +42858,46 @@
       <c r="F52" s="90"/>
     </row>
     <row r="53" spans="2:6" ht="14.25" thickTop="1">
-      <c r="B53" s="308" t="s">
+      <c r="B53" s="316" t="s">
         <v>85</v>
       </c>
       <c r="C53" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="D53" s="310" t="s">
+      <c r="D53" s="317" t="s">
         <v>86</v>
       </c>
-      <c r="E53" s="310" t="s">
+      <c r="E53" s="317" t="s">
         <v>85</v>
       </c>
-      <c r="F53" s="311"/>
+      <c r="F53" s="318"/>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="309"/>
+      <c r="B54" s="306"/>
       <c r="C54" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D54" s="303"/>
-      <c r="E54" s="303"/>
-      <c r="F54" s="305"/>
+      <c r="D54" s="311"/>
+      <c r="E54" s="311"/>
+      <c r="F54" s="312"/>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="309"/>
+      <c r="B55" s="306"/>
       <c r="C55" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D55" s="303"/>
-      <c r="E55" s="303"/>
-      <c r="F55" s="305"/>
+      <c r="D55" s="311"/>
+      <c r="E55" s="311"/>
+      <c r="F55" s="312"/>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="309"/>
+      <c r="B56" s="306"/>
       <c r="C56" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="D56" s="303"/>
-      <c r="E56" s="303"/>
-      <c r="F56" s="305"/>
+      <c r="D56" s="311"/>
+      <c r="E56" s="311"/>
+      <c r="F56" s="312"/>
     </row>
     <row r="57" spans="2:6" ht="27">
       <c r="B57" s="67"/>
@@ -42917,22 +42913,22 @@
       <c r="F57" s="66"/>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="309"/>
-      <c r="C58" s="304"/>
-      <c r="D58" s="303" t="s">
+      <c r="B58" s="306"/>
+      <c r="C58" s="307"/>
+      <c r="D58" s="311" t="s">
         <v>89</v>
       </c>
-      <c r="E58" s="303" t="s">
+      <c r="E58" s="311" t="s">
         <v>90</v>
       </c>
-      <c r="F58" s="305"/>
+      <c r="F58" s="312"/>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="309"/>
-      <c r="C59" s="304"/>
-      <c r="D59" s="303"/>
-      <c r="E59" s="303"/>
-      <c r="F59" s="305"/>
+      <c r="B59" s="306"/>
+      <c r="C59" s="307"/>
+      <c r="D59" s="311"/>
+      <c r="E59" s="311"/>
+      <c r="F59" s="312"/>
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="67"/>
@@ -43076,10 +43072,10 @@
       <c r="E74" s="132"/>
     </row>
     <row r="75" spans="2:6" s="76" customFormat="1" ht="43.5" customHeight="1" thickBot="1">
-      <c r="B75" s="317" t="s">
+      <c r="B75" s="305" t="s">
         <v>257</v>
       </c>
-      <c r="C75" s="317"/>
+      <c r="C75" s="305"/>
       <c r="D75" s="136"/>
       <c r="E75" s="71"/>
     </row>
@@ -43143,7 +43139,7 @@
       <c r="B84" s="153" t="s">
         <v>138</v>
       </c>
-      <c r="C84" s="318" t="s">
+      <c r="C84" s="308" t="s">
         <v>206</v>
       </c>
       <c r="D84" s="137"/>
@@ -43152,14 +43148,14 @@
       <c r="B85" s="153" t="s">
         <v>154</v>
       </c>
-      <c r="C85" s="319"/>
+      <c r="C85" s="309"/>
       <c r="D85" s="137"/>
     </row>
     <row r="86" spans="2:5" ht="32.25" customHeight="1" thickBot="1">
       <c r="B86" s="154" t="s">
         <v>155</v>
       </c>
-      <c r="C86" s="320"/>
+      <c r="C86" s="310"/>
       <c r="D86" s="138"/>
     </row>
     <row r="87" spans="2:5" ht="14.25" thickTop="1"/>
@@ -43180,7 +43176,7 @@
       </c>
     </row>
     <row r="91" spans="2:5" ht="27">
-      <c r="B91" s="312" t="s">
+      <c r="B91" s="300" t="s">
         <v>215</v>
       </c>
       <c r="C91" s="152" t="s">
@@ -43188,14 +43184,14 @@
       </c>
     </row>
     <row r="92" spans="2:5" ht="27" customHeight="1">
-      <c r="B92" s="313"/>
-      <c r="C92" s="315" t="s">
+      <c r="B92" s="301"/>
+      <c r="C92" s="303" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="93" spans="2:5" ht="14.25" thickBot="1">
-      <c r="B93" s="314"/>
-      <c r="C93" s="316"/>
+      <c r="B93" s="302"/>
+      <c r="C93" s="304"/>
     </row>
     <row r="94" spans="2:5" ht="14.25" thickTop="1">
       <c r="B94" s="76"/>
@@ -43203,12 +43199,13 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="E35:E39"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
     <mergeCell ref="D58:D59"/>
     <mergeCell ref="E58:E59"/>
     <mergeCell ref="F58:F59"/>
@@ -43220,13 +43217,12 @@
     <mergeCell ref="D53:D56"/>
     <mergeCell ref="E53:E56"/>
     <mergeCell ref="F53:F56"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="E35:E39"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C84:C86"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" location="Definitioner!B12" display="Dödsorsak covid-19"/>
@@ -55587,12 +55583,12 @@
       <c r="G36" s="74">
         <v>17</v>
       </c>
-      <c r="H36" s="74">
-        <v>15</v>
-      </c>
-      <c r="I36" s="7">
+      <c r="H36" s="74" t="s">
+        <v>297</v>
+      </c>
+      <c r="I36" s="7" t="str">
         <f>IF(OR(H36=0,H36="X"),"",100*H36/G36)</f>
-        <v>88.235294117647058</v>
+        <v/>
       </c>
       <c r="J36" s="74" t="s">
         <v>297</v>
@@ -55661,12 +55657,12 @@
       <c r="G38" s="74">
         <v>10</v>
       </c>
-      <c r="H38" s="74">
-        <v>8</v>
-      </c>
-      <c r="I38" s="7">
+      <c r="H38" s="74" t="s">
+        <v>297</v>
+      </c>
+      <c r="I38" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v/>
       </c>
       <c r="J38" s="74" t="s">
         <v>297</v>
@@ -60116,16 +60112,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:F6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -60902,6 +60898,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Publiceringsdatum xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">2020-04-28T22:00:00+00:00</Publiceringsdatum>
@@ -60937,15 +60942,6 @@
     <Status_x0020_p_x00e5__x0020_publikation xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Publicerad</Status_x0020_p_x00e5__x0020_publikation>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -61282,26 +61278,26 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C92573-D875-4871-BB97-75789C903393}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F4CF34A-7793-424A-BF7F-3DB732CF3454}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="343f6c91-b5b3-4dff-89ad-5fc55ccc8930"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C92573-D875-4871-BB97-75789C903393}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
